--- a/inputdata.xlsx
+++ b/inputdata.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\eclipse-workspace\SDET_3_ABHI\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{518B4A8D-6FF7-4A0F-B404-7843BB48A9D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E3BA35C-7511-4007-A12A-9B65A05B6FAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3435" yWindow="1050" windowWidth="15375" windowHeight="7875" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3435" yWindow="1050" windowWidth="15375" windowHeight="7875" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gen" sheetId="1" r:id="rId1"/>
@@ -579,7 +579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E10A71E-C75A-402A-8578-0004D092AC0F}">
   <dimension ref="B1:E33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -846,7 +846,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7361B21D-F519-49E4-8E60-9EE4E6BBD5E6}">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
